--- a/public/DataExcel/user.xlsx
+++ b/public/DataExcel/user.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>nama_lengkap</t>
   </si>
   <si>
     <t>id_jurusan</t>
@@ -34,12 +34,12 @@
     <t>status</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>nisn</t>
-  </si>
-  <si>
     <t>jenis kelamin</t>
   </si>
   <si>
@@ -58,12 +58,12 @@
     <t>kerja</t>
   </si>
   <si>
+    <t>mannd</t>
+  </si>
+  <si>
     <t>asddsa</t>
   </si>
   <si>
-    <t>0058583536</t>
-  </si>
-  <si>
     <t>laki-laki</t>
   </si>
   <si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>bardi@gmail.com</t>
+  </si>
+  <si>
+    <t>mozyxue</t>
   </si>
   <si>
     <t>perempuan</t>
@@ -84,8 +87,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -97,6 +100,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -105,42 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -150,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +176,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -196,34 +221,13 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -234,15 +238,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,11 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +493,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -499,26 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,154 +554,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,7 +1052,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1082,12 +1084,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="I1"/>
       <c r="K1" t="s">
         <v>8</v>
       </c>
@@ -1111,12 +1114,13 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I2"/>
       <c r="K2" t="s">
         <v>16</v>
       </c>
@@ -1140,14 +1144,15 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I3"/>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataExcel/user.xlsx
+++ b/public/DataExcel/user.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>nama_lengkap</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+  <si>
+    <t>nama lengkap</t>
   </si>
   <si>
     <t>id_jurusan</t>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>perempuan</t>
+  </si>
+  <si>
+    <t>marva</t>
   </si>
 </sst>
 </file>
@@ -88,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,12 +104,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -114,54 +139,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,14 +193,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,55 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,25 +263,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,157 +419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +454,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,35 +487,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +537,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -554,148 +557,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,13 +1052,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="12.8518518518519" customWidth="1"/>
     <col min="2" max="2" width="34.1388888888889" customWidth="1"/>
@@ -1090,7 +1093,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1"/>
       <c r="K1" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1122,6 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2"/>
       <c r="K2" t="s">
         <v>16</v>
       </c>
@@ -1150,8 +1151,65 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3"/>
       <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/public/DataExcel/user.xlsx
+++ b/public/DataExcel/user.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
-  <si>
-    <t>nama lengkap</t>
-  </si>
-  <si>
-    <t>id_jurusan</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>alamat</t>
-  </si>
-  <si>
-    <t>angkatan</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>jenis kelamin</t>
-  </si>
-  <si>
-    <t>Armand Nur</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Jurusan</t>
+  </si>
+  <si>
+    <t>No Hp</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Angkatan</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Nama Ayah</t>
+  </si>
+  <si>
+    <t>Nama Ibu</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Nisn</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ayah</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ibu</t>
+  </si>
+  <si>
+    <t>Status Pernikahan</t>
+  </si>
+  <si>
+    <t>Tempat Kerja</t>
+  </si>
+  <si>
+    <t>Tempat Kuliah</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Mesa</t>
   </si>
   <si>
     <t>Teknik Komputer dan Jaringan</t>
@@ -64,25 +97,79 @@
     <t>asddsa</t>
   </si>
   <si>
+    <t>sukarno</t>
+  </si>
+  <si>
+    <t>siti</t>
+  </si>
+  <si>
     <t>laki-laki</t>
   </si>
   <si>
-    <t>bardi</t>
+    <t>kantoran</t>
+  </si>
+  <si>
+    <t>irt</t>
+  </si>
+  <si>
+    <t>belum menikah</t>
+  </si>
+  <si>
+    <t>jakarta</t>
+  </si>
+  <si>
+    <t>Siska</t>
   </si>
   <si>
     <t>Akutansi Komputer</t>
   </si>
   <si>
-    <t>bardi@gmail.com</t>
+    <t>siska@gmail.com</t>
   </si>
   <si>
     <t>mozyxue</t>
   </si>
   <si>
+    <t>sucipto</t>
+  </si>
+  <si>
+    <t>aminah</t>
+  </si>
+  <si>
     <t>perempuan</t>
   </si>
   <si>
-    <t>marva</t>
+    <t>pns</t>
+  </si>
+  <si>
+    <t>Sinta</t>
+  </si>
+  <si>
+    <t>sinta@gmail.com</t>
+  </si>
+  <si>
+    <t>edi</t>
+  </si>
+  <si>
+    <t>retno</t>
+  </si>
+  <si>
+    <t>pengusaha</t>
+  </si>
+  <si>
+    <t>Rias</t>
+  </si>
+  <si>
+    <t>risa@gmail.com</t>
+  </si>
+  <si>
+    <t>muraad</t>
+  </si>
+  <si>
+    <t>kartika</t>
+  </si>
+  <si>
+    <t>guru</t>
   </si>
 </sst>
 </file>
@@ -91,8 +178,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -103,8 +190,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,68 +205,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +281,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,48 +311,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,17 +544,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,7 +583,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,8 +621,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,176 +641,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1066,9 +1155,10 @@
     <col min="4" max="4" width="36.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="10.5648148148148" customWidth="1"/>
     <col min="6" max="6" width="8.13888888888889" customWidth="1"/>
+    <col min="19" max="20" width="9.22222222222222"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1093,127 +1183,273 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
         <v>20000</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2">
+        <v>123321</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="2">
+        <v>38779</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
         <v>2001</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>234432</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="2">
+        <v>38779</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
         <v>2001</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>345543</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="2">
+        <v>38779</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>2001</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>456654</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="2">
+        <v>38779</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="siska@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId2" display="sinta@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId3" display="risa@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
